--- a/data/模拟学生信息.xlsx
+++ b/data/模拟学生信息.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xulifeng1/Documents/xlf_work/class_knowledge_LLM/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EB1678-7403-D34C-B336-1ED12B4414C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2820" windowWidth="29440" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,13 +31,30 @@
     <t>平时成绩</t>
   </si>
   <si>
+    <t>课堂参与成绩</t>
+  </si>
+  <si>
+    <t>单元测试1成绩</t>
+  </si>
+  <si>
+    <t>单元测试2成绩</t>
+  </si>
+  <si>
+    <t>期末考试成绩</t>
+  </si>
+  <si>
+    <t>总评成绩</t>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>已掌握的知识点</t>
     </r>
@@ -122,52 +121,26 @@
   </si>
   <si>
     <t>清风</t>
-  </si>
-  <si>
-    <t>课堂参与成绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元测试1成绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元测试2成绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末考试成绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总评成绩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,18 +149,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -199,18 +170,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFf8cbad"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,64 +210,80 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -309,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -350,71 +335,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,7 +427,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -465,11 +450,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -478,13 +463,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -494,7 +479,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -503,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -520,10 +505,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -588,76 +573,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="10" width="12.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="80.5" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" style="12" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="80.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>1120210001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7">
         <v>85</v>
@@ -677,25 +666,25 @@
       <c r="J2" s="7">
         <v>90</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7">
         <v>1120210002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7">
         <v>78</v>
@@ -715,25 +704,25 @@
       <c r="J3" s="7">
         <v>82</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="342.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>1120210003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>92</v>
@@ -753,25 +742,25 @@
       <c r="J4" s="7">
         <v>95</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="295.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="295.75">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7">
         <v>1120210004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>65</v>
@@ -791,25 +780,25 @@
       <c r="J5" s="7">
         <v>70</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
+      <c r="K5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="409.25">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>112021005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>58</v>
@@ -829,25 +818,25 @@
       <c r="J6" s="7">
         <v>62</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="8" t="s">
-        <v>26</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
         <v>112021006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
         <v>99</v>
@@ -867,15 +856,14 @@
       <c r="J7" s="7">
         <v>100</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>